--- a/data/output/FV2404_FV2310/UTILMD/44113.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/44113.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="262">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3069" uniqueCount="262">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -893,6 +893,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U133" totalsRowShown="0">
+  <autoFilter ref="A1:U133"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1182,7 +1212,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7720,5 +7753,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/44113.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/44113.xlsx
@@ -1711,7 +1711,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4291,7 +4291,7 @@
         <v>252</v>
       </c>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -4453,7 +4453,7 @@
         <v>253</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4853,7 +4853,7 @@
         <v>255</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5065,7 +5065,7 @@
         <v>258</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5335,7 +5335,7 @@
         <v>259</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -5643,7 +5643,7 @@
         <v>258</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6217,7 +6217,7 @@
         <v>260</v>
       </c>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6521,7 +6521,7 @@
         <v>261</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -6833,7 +6833,7 @@
         <v>261</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7365,7 +7365,7 @@
         <v>261</v>
       </c>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -7897,7 +7897,7 @@
         <v>261</v>
       </c>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -8429,7 +8429,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N131" s="2"/>
